--- a/biology/Botanique/Chamaedorea_tepejilote/Chamaedorea_tepejilote.xlsx
+++ b/biology/Botanique/Chamaedorea_tepejilote/Chamaedorea_tepejilote.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chamaedorea tepejilote, également connu sous le nom de palmier pacaya, est une espèce de palmier du genre Chamaedorea que l'on trouve dans le sous-bois  des forêts tropicales du sud du Mexique, de l'Amérique centrale et du nord de la Colombie [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chamaedorea tepejilote, également connu sous le nom de palmier pacaya, est une espèce de palmier du genre Chamaedorea que l'on trouve dans le sous-bois  des forêts tropicales du sud du Mexique, de l'Amérique centrale et du nord de la Colombie .
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
-Tribu des Chamaedoreeae [2]
+Tribu des Chamaedoreeae 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">   Port  : solitaire, parfois cespiteux, érigé, parfois décombant, de 2 à 7 m de haut guère plus, ses cespiteux formant des touffes de 3 à 4 m de large.
    Tiges  : 2-10 cm de diamètre, vertes, fortement annelées, entre-nœuds de 2-15 cm de long, souvent avec des racines secondaires plus ou moins proéminentes à la base.
@@ -578,10 +594,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les inflorescences mâles immatures de la plante sont considérées comme un mets délicat au Guatemala et au Salvador . Les inflorescences non ouvertes ressemblent à un épi de maïs en apparence et en taille [3]. En effet, le mot tepejilote signifie «maïs de montagne» en langue nahuatl . Il  a été choisi en raison de cette ressemblance [1]. Le nom commun 'pacaya', se référant à la fois à la plante et à ses fleurs comestibles, et pourrait être dérivé du volcan Pacaya [1].
-Ce met Pacaya a un goût un peu amer, mais bien moins dans les variétés cultivées [1]. Il se déguste en salade (en particulier le fiambre, une salade traditionnellement consommée au Guatemala le jour des morts ) ou recouvert de pâte aux œufs et frit [4]. Ce dernier plat est appelé 'envueltos de pacaya', et il est souvent servi avec de la sauce tomate, comme des piments ou des poivrons farcis (chiles rellenos) .
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences mâles immatures de la plante sont considérées comme un mets délicat au Guatemala et au Salvador . Les inflorescences non ouvertes ressemblent à un épi de maïs en apparence et en taille . En effet, le mot tepejilote signifie «maïs de montagne» en langue nahuatl . Il  a été choisi en raison de cette ressemblance . Le nom commun 'pacaya', se référant à la fois à la plante et à ses fleurs comestibles, et pourrait être dérivé du volcan Pacaya .
+Ce met Pacaya a un goût un peu amer, mais bien moins dans les variétés cultivées . Il se déguste en salade (en particulier le fiambre, une salade traditionnellement consommée au Guatemala le jour des morts ) ou recouvert de pâte aux œufs et frit . Ce dernier plat est appelé 'envueltos de pacaya', et il est souvent servi avec de la sauce tomate, comme des piments ou des poivrons farcis (chiles rellenos) .
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'élégance de ce palmier combinée avec les qualités du genre (tolérance à une faible luminosité et facilité d'entretien)  le font utiliser comme plante d’intérieur. Ses stipes qui peuvent atteindre 10 cm de diamètre, annelés comme des bambous et ses feuilles vert foncé étalées lui donnent une apparence unique. De croissance assez rapide, il convient, en extérieur , plutôt a des climats tempérés chaud , aussi bien qu'a une ambiance tropicale.
 </t>
